--- a/周数据/《实施上线数据统计表》-徐沛华.xlsx
+++ b/周数据/《实施上线数据统计表》-徐沛华.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370"/>
+    <workbookView windowWidth="19770" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -463,11 +463,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -597,7 +597,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,13 +630,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -650,13 +657,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -827,13 +827,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,19 +863,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,13 +899,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,37 +953,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1568,10 +1568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1580,16 +1580,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1601,52 +1601,52 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1655,58 +1655,58 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2371,7 +2371,7 @@
   <sheetPr/>
   <dimension ref="A1:I598"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -16278,8 +16278,8 @@
   <sheetPr/>
   <dimension ref="A1:O297"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -17193,7 +17193,7 @@
     </row>
     <row r="20" s="12" customFormat="1" spans="1:15">
       <c r="A20" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="32">
         <v>43224</v>
@@ -17240,7 +17240,7 @@
     </row>
     <row r="21" s="12" customFormat="1" spans="1:15">
       <c r="A21" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="32">
         <v>43225</v>
@@ -17287,7 +17287,7 @@
     </row>
     <row r="22" s="12" customFormat="1" spans="1:15">
       <c r="A22" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="32">
         <v>43232</v>

--- a/周数据/《实施上线数据统计表》-徐沛华.xlsx
+++ b/周数据/《实施上线数据统计表》-徐沛华.xlsx
@@ -496,10 +496,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="37">
@@ -630,6 +630,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -638,6 +683,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,46 +725,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,31 +749,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,18 +766,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -860,6 +860,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -872,7 +908,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,13 +938,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,48 +980,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -986,19 +998,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1505,15 +1505,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1529,17 +1520,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1568,28 +1579,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1601,10 +1601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1613,133 +1613,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2404,8 +2404,8 @@
   <sheetPr/>
   <dimension ref="A1:I598"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -3103,16 +3103,16 @@
         <v>3</v>
       </c>
       <c r="D30" s="72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="73"/>
       <c r="F30" s="74">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="75">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="76">
         <f t="shared" si="6"/>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="I30" s="98">
         <f t="shared" si="7"/>
-        <v>0.666666666666667</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -16317,7 +16317,7 @@
   <sheetPr/>
   <dimension ref="A1:O297"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
